--- a/AlliedAdapter/Excel/Account Mapping with Card.xlsx
+++ b/AlliedAdapter/Excel/Account Mapping with Card.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aghtash Working\vsm\Allied\AlliedAdapter\AlliedAdapter\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A3F030-DEB3-47EA-B572-AA16F4543CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E121D-4AF1-49AC-8078-175B6A4ADF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$24</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="149">
   <si>
     <t>IRIS Card Product Code</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>1501, 1502, 1503, 1504, 1507, 1508, 1512, 1513, 1517, 1518, 1851, 1852, 1854, 1855, 1856, 1857, 1992, 6301, 6302, 6303, 6304, 6305, 6306, 6308, 6310, 6311, 6312, 6314, 6315, 6316, 6317, 6323, 6325, 6327, 6329, 6331, 6333, 6337, 6338, 6341, 6344, 6345, 6346, 6349, 6386, 6551, 6552, 6553, 6554, 6555, 6556, 6557, 6572, 8477, 6307, 1511, 6332, 6332</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>KGS Card Format Name (Card plastic)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +480,7 @@
     <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
     <numFmt numFmtId="165" formatCode="&quot;PKR.&quot;\ \&amp;\ General\ \&amp;\ \+\ &quot;FED&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +515,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,10 +616,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,22 +946,23 @@
     <col min="1" max="1" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="150.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -953,41 +975,44 @@
       <c r="D1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1000,41 +1025,44 @@
       <c r="D2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,39 +1075,42 @@
       <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="15"/>
+      <c r="G3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>13</v>
       </c>
@@ -1092,39 +1123,42 @@
       <c r="D4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>25</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="O4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1137,39 +1171,42 @@
       <c r="D5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>26</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1182,39 +1219,42 @@
       <c r="D6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>27</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K6" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,39 +1267,42 @@
       <c r="D7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>28</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="O7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1272,39 +1315,42 @@
       <c r="D8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>93</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1317,39 +1363,42 @@
       <c r="D9" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>94</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1362,39 +1411,42 @@
       <c r="D10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="1">
-        <v>95</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="O10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1407,41 +1459,44 @@
       <c r="D11" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1454,41 +1509,44 @@
       <c r="D12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>20</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="O12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,41 +1559,44 @@
       <c r="D13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>55</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1548,41 +1609,44 @@
       <c r="D14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>92</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="J14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K14" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>95</v>
       </c>
       <c r="M14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1595,41 +1659,44 @@
       <c r="D15" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>60</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="J15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1642,41 +1709,44 @@
       <c r="D16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>61</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M16" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>98</v>
       </c>
       <c r="O16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1689,41 +1759,44 @@
       <c r="D17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>63</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M17" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1736,41 +1809,44 @@
       <c r="D18" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>64</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M18" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>98</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1783,41 +1859,44 @@
       <c r="D19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>67</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1830,41 +1909,44 @@
       <c r="D20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>66</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M20" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,41 +1959,44 @@
       <c r="D21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>88</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>99</v>
       </c>
       <c r="O21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1924,41 +2009,44 @@
       <c r="D22" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>40</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="J22" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,41 +2059,44 @@
       <c r="D23" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>46</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="O23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -2018,52 +2109,70 @@
       <c r="D24" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>65</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="K24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L24" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
-      <c r="E25" s="5"/>
-      <c r="H25" s="9"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="8"/>
+      <c r="F25" s="5"/>
+      <c r="I25" s="9"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="5:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:E10"/>
+    <mergeCell ref="F2:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
